--- a/dados_atualizados/df_editados/base_completa_final.xlsx
+++ b/dados_atualizados/df_editados/base_completa_final.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t>CD_BAIRRO</t>
   </si>
@@ -266,6 +266,12 @@
     <t>Variância do rendimento nominal mensal das pessoas responsáveis com rendimentos por domicílios particulares permanentes ocupados</t>
   </si>
   <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
     <t>Batista Campos</t>
   </si>
   <si>
@@ -420,7 +426,7 @@
     <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -431,6 +437,31 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -905,156 +936,161 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1401,10 +1437,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:CA49"/>
+  <dimension ref="A1:CC49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BZ1" workbookViewId="0">
-      <selection activeCell="CA1" sqref="CA1"/>
+    <sheetView tabSelected="1" topLeftCell="CA1" workbookViewId="0">
+      <selection activeCell="CC52" sqref="CC52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1456,9 +1492,11 @@
     <col min="77" max="77" width="85.8571428571429" customWidth="1"/>
     <col min="78" max="78" width="138.857142857143" customWidth="1"/>
     <col min="79" max="79" width="135.857142857143" customWidth="1"/>
+    <col min="80" max="80" width="23.7142857142857" customWidth="1"/>
+    <col min="81" max="81" width="27.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79">
+    <row r="1" spans="1:81">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1696,13 +1734,19 @@
       <c r="CA1" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="2" spans="1:79">
+    <row r="2" ht="15.75" spans="1:81">
       <c r="A2">
         <v>1501402001</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C2">
         <v>18335</v>
@@ -1935,13 +1979,19 @@
       <c r="CA2">
         <v>92407694.09</v>
       </c>
+      <c r="CB2" s="2">
+        <v>-14606675</v>
+      </c>
+      <c r="CC2" s="6">
+        <v>-484899721</v>
+      </c>
     </row>
-    <row r="3" spans="1:79">
+    <row r="3" spans="1:81">
       <c r="A3">
         <v>1501402002</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C3">
         <v>11923</v>
@@ -2174,13 +2224,19 @@
       <c r="CA3">
         <v>10681250.35</v>
       </c>
+      <c r="CB3" s="3">
+        <v>-1449132</v>
+      </c>
+      <c r="CC3" s="3">
+        <v>-48460541</v>
+      </c>
     </row>
-    <row r="4" spans="1:79">
+    <row r="4" spans="1:81">
       <c r="A4">
         <v>1501402003</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C4">
         <v>10455</v>
@@ -2413,13 +2469,19 @@
       <c r="CA4">
         <v>25394617.89</v>
       </c>
+      <c r="CB4" s="3">
+        <v>-1465365</v>
+      </c>
+      <c r="CC4" s="3">
+        <v>-48502724</v>
+      </c>
     </row>
-    <row r="5" spans="1:79">
+    <row r="5" spans="1:81">
       <c r="A5">
         <v>1501402004</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C5">
         <v>34605</v>
@@ -2652,13 +2714,19 @@
       <c r="CA5">
         <v>3763169.19</v>
       </c>
+      <c r="CB5" s="3">
+        <v>-1475733</v>
+      </c>
+      <c r="CC5" s="3">
+        <v>-48476825</v>
+      </c>
     </row>
-    <row r="6" spans="1:79">
+    <row r="6" spans="1:81">
       <c r="A6">
         <v>1501402005</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C6">
         <v>28604</v>
@@ -2891,13 +2959,19 @@
       <c r="CA6">
         <v>42142296.67</v>
       </c>
+      <c r="CB6" s="3">
+        <v>-1463389</v>
+      </c>
+      <c r="CC6" s="3">
+        <v>-48476688</v>
+      </c>
     </row>
-    <row r="7" spans="1:79">
+    <row r="7" spans="1:81">
       <c r="A7">
         <v>1501402006</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C7">
         <v>81172</v>
@@ -3130,13 +3204,19 @@
       <c r="CA7">
         <v>1709437854.03</v>
       </c>
+      <c r="CB7" s="3">
+        <v>-1475264</v>
+      </c>
+      <c r="CC7" s="3">
+        <v>-48465223</v>
+      </c>
     </row>
-    <row r="8" spans="1:79">
+    <row r="8" ht="15.75" spans="1:81">
       <c r="A8">
         <v>1501402007</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C8">
         <v>53985</v>
@@ -3369,13 +3449,19 @@
       <c r="CA8">
         <v>17241926.6</v>
       </c>
+      <c r="CB8" s="4">
+        <v>-14691222</v>
+      </c>
+      <c r="CC8" s="5">
+        <v>-48493002</v>
+      </c>
     </row>
-    <row r="9" spans="1:79">
+    <row r="9" spans="1:81">
       <c r="A9">
         <v>1501402008</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C9">
         <v>58870</v>
@@ -3608,13 +3694,19 @@
       <c r="CA9">
         <v>38277218.88</v>
       </c>
+      <c r="CB9" s="5">
+        <v>-14022386</v>
+      </c>
+      <c r="CC9" s="5">
+        <v>-484493434</v>
+      </c>
     </row>
-    <row r="10" spans="1:79">
+    <row r="10" spans="1:81">
       <c r="A10">
         <v>1501402009</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C10">
         <v>59847</v>
@@ -3847,13 +3939,19 @@
       <c r="CA10">
         <v>47337764.16</v>
       </c>
+      <c r="CB10" s="5">
+        <v>-14362857</v>
+      </c>
+      <c r="CC10" s="5">
+        <v>-484589779</v>
+      </c>
     </row>
-    <row r="11" spans="1:79">
+    <row r="11" spans="1:81">
       <c r="A11">
         <v>1501402010</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C11">
         <v>11233</v>
@@ -4086,13 +4184,19 @@
       <c r="CA11">
         <v>1170532383.83</v>
       </c>
+      <c r="CB11" s="5">
+        <v>-14420358</v>
+      </c>
+      <c r="CC11" s="5">
+        <v>-484725124</v>
+      </c>
     </row>
-    <row r="12" spans="1:79">
+    <row r="12" spans="1:81">
       <c r="A12">
         <v>1501402011</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C12">
         <v>17755</v>
@@ -4325,13 +4429,19 @@
       <c r="CA12">
         <v>743207595.24</v>
       </c>
+      <c r="CB12" s="5">
+        <v>-14526114</v>
+      </c>
+      <c r="CC12" s="5">
+        <v>-484846813</v>
+      </c>
     </row>
-    <row r="13" spans="1:79">
+    <row r="13" spans="1:81">
       <c r="A13">
         <v>1501402012</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C13">
         <v>64465</v>
@@ -4564,13 +4674,19 @@
       <c r="CA13">
         <v>40451934.04</v>
       </c>
+      <c r="CB13" s="5">
+        <v>-14256402</v>
+      </c>
+      <c r="CC13" s="5">
+        <v>-484698333</v>
+      </c>
     </row>
-    <row r="14" spans="1:79">
+    <row r="14" spans="1:81">
       <c r="A14">
         <v>1501402013</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C14">
         <v>5168</v>
@@ -4803,13 +4919,19 @@
       <c r="CA14">
         <v>96060276.04</v>
       </c>
+      <c r="CB14" s="5">
+        <v>-14462912</v>
+      </c>
+      <c r="CC14" s="5">
+        <v>-484921629</v>
+      </c>
     </row>
-    <row r="15" spans="1:79">
+    <row r="15" spans="1:81">
       <c r="A15">
         <v>1501402014</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C15">
         <v>40835</v>
@@ -5042,13 +5164,19 @@
       <c r="CA15">
         <v>6717816.82</v>
       </c>
+      <c r="CB15" s="5">
+        <v>-14211105</v>
+      </c>
+      <c r="CC15" s="5">
+        <v>-484764895</v>
+      </c>
     </row>
-    <row r="16" spans="1:79">
+    <row r="16" spans="1:81">
       <c r="A16">
         <v>1501402015</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C16">
         <v>17724</v>
@@ -5281,13 +5409,19 @@
       <c r="CA16">
         <v>70039647.21</v>
       </c>
+      <c r="CB16" s="5">
+        <v>-14510433</v>
+      </c>
+      <c r="CC16" s="5">
+        <v>-484713829</v>
+      </c>
     </row>
-    <row r="17" spans="1:79">
+    <row r="17" spans="1:81">
       <c r="A17">
         <v>1501402016</v>
       </c>
       <c r="B17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C17">
         <v>11032</v>
@@ -5520,13 +5654,19 @@
       <c r="CA17">
         <v>36610180.16</v>
       </c>
+      <c r="CB17" s="5">
+        <v>-14165441</v>
+      </c>
+      <c r="CC17" s="5">
+        <v>-484516199</v>
+      </c>
     </row>
-    <row r="18" spans="1:79">
+    <row r="18" spans="1:81">
       <c r="A18">
         <v>1501402017</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C18">
         <v>38300</v>
@@ -5759,13 +5899,19 @@
       <c r="CA18">
         <v>200171789.44</v>
       </c>
+      <c r="CB18" s="5">
+        <v>-14260425</v>
+      </c>
+      <c r="CC18" s="5">
+        <v>-484857103</v>
+      </c>
     </row>
-    <row r="19" spans="1:79">
+    <row r="19" spans="1:81">
       <c r="A19">
         <v>1501402018</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C19">
         <v>46750</v>
@@ -5998,13 +6144,19 @@
       <c r="CA19">
         <v>120700873.26</v>
       </c>
+      <c r="CB19" s="5">
+        <v>-14540469</v>
+      </c>
+      <c r="CC19" s="5">
+        <v>-484511576</v>
+      </c>
     </row>
-    <row r="20" spans="1:79">
+    <row r="20" spans="1:81">
       <c r="A20">
         <v>1501402019</v>
       </c>
       <c r="B20" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C20">
         <v>5111</v>
@@ -6237,13 +6389,19 @@
       <c r="CA20">
         <v>51423550.18</v>
       </c>
+      <c r="CB20" s="5">
+        <v>-14529362</v>
+      </c>
+      <c r="CC20" s="5">
+        <v>-484980117</v>
+      </c>
     </row>
-    <row r="21" spans="1:79">
+    <row r="21" spans="1:81">
       <c r="A21">
         <v>1501402020</v>
       </c>
       <c r="B21" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C21">
         <v>32639</v>
@@ -6476,13 +6634,19 @@
       <c r="CA21">
         <v>116456860.5</v>
       </c>
+      <c r="CB21" s="5">
+        <v>-14398926</v>
+      </c>
+      <c r="CC21" s="5">
+        <v>-48484956</v>
+      </c>
     </row>
-    <row r="22" spans="1:79">
+    <row r="22" spans="1:81">
       <c r="A22">
         <v>1501402021</v>
       </c>
       <c r="B22" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C22">
         <v>22441</v>
@@ -6715,13 +6879,19 @@
       <c r="CA22">
         <v>938078.29</v>
       </c>
+      <c r="CB22" s="5">
+        <v>-14110621</v>
+      </c>
+      <c r="CC22" s="5">
+        <v>-484824108</v>
+      </c>
     </row>
-    <row r="23" spans="1:79">
+    <row r="23" spans="1:81">
       <c r="A23">
         <v>1501402022</v>
       </c>
       <c r="B23" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C23">
         <v>28338</v>
@@ -6954,13 +7124,19 @@
       <c r="CA23">
         <v>4743879.55</v>
       </c>
+      <c r="CB23" s="5">
+        <v>-14018138</v>
+      </c>
+      <c r="CC23" s="5">
+        <v>-484784553</v>
+      </c>
     </row>
-    <row r="24" spans="1:79">
+    <row r="24" spans="1:81">
       <c r="A24">
         <v>1501402023</v>
       </c>
       <c r="B24" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C24">
         <v>578</v>
@@ -7193,13 +7369,19 @@
       <c r="CA24">
         <v>1467973.71</v>
       </c>
+      <c r="CB24" s="3">
+        <v>-14081334</v>
+      </c>
+      <c r="CC24" s="3">
+        <v>-484892824</v>
+      </c>
     </row>
-    <row r="25" spans="1:79">
+    <row r="25" spans="1:81">
       <c r="A25">
         <v>1501402024</v>
       </c>
       <c r="B25" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C25">
         <v>17413</v>
@@ -7432,13 +7614,19 @@
       <c r="CA25">
         <v>12593926.7</v>
       </c>
+      <c r="CB25" s="5">
+        <v>-14333062</v>
+      </c>
+      <c r="CC25" s="5">
+        <v>-484197829</v>
+      </c>
     </row>
-    <row r="26" spans="1:79">
+    <row r="26" spans="1:81">
       <c r="A26">
         <v>1501402025</v>
       </c>
       <c r="B26" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C26">
         <v>7068</v>
@@ -7671,13 +7859,19 @@
       <c r="CA26">
         <v>65814825.98</v>
       </c>
+      <c r="CB26" s="3">
+        <v>-13858138</v>
+      </c>
+      <c r="CC26" s="5">
+        <v>-484734926</v>
+      </c>
     </row>
-    <row r="27" spans="1:79">
+    <row r="27" spans="1:81">
       <c r="A27">
         <v>1501402026</v>
       </c>
       <c r="B27" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C27">
         <v>34605</v>
@@ -7910,13 +8104,19 @@
       <c r="CA27">
         <v>49266810.35</v>
       </c>
+      <c r="CB27" s="5">
+        <v>-13811727</v>
+      </c>
+      <c r="CC27" s="5">
+        <v>-484439318</v>
+      </c>
     </row>
-    <row r="28" spans="1:79">
+    <row r="28" spans="1:81">
       <c r="A28">
         <v>1501402027</v>
       </c>
       <c r="B28" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C28">
         <v>7365</v>
@@ -8149,13 +8349,19 @@
       <c r="CA28">
         <v>746253.61</v>
       </c>
+      <c r="CB28" s="5">
+        <v>-14628793</v>
+      </c>
+      <c r="CC28" s="5">
+        <v>-484402862</v>
+      </c>
     </row>
-    <row r="29" spans="1:79">
+    <row r="29" spans="1:81">
       <c r="A29">
         <v>1501402028</v>
       </c>
       <c r="B29" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C29">
         <v>19891</v>
@@ -8388,13 +8594,19 @@
       <c r="CA29">
         <v>13493343.83</v>
       </c>
+      <c r="CB29" s="5">
+        <v>-14077631</v>
+      </c>
+      <c r="CC29" s="5">
+        <v>-484345231</v>
+      </c>
     </row>
-    <row r="30" spans="1:79">
+    <row r="30" spans="1:81">
       <c r="A30">
         <v>1501402029</v>
       </c>
       <c r="B30" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C30">
         <v>1439</v>
@@ -8627,13 +8839,19 @@
       <c r="CA30">
         <v>3707214.94</v>
       </c>
+      <c r="CB30" s="5">
+        <v>-14077631</v>
+      </c>
+      <c r="CC30" s="5">
+        <v>-484345231</v>
+      </c>
     </row>
-    <row r="31" spans="1:79">
+    <row r="31" spans="1:81">
       <c r="A31">
         <v>1501402030</v>
       </c>
       <c r="B31" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C31">
         <v>17108</v>
@@ -8866,13 +9084,19 @@
       <c r="CA31">
         <v>1875350.56</v>
       </c>
+      <c r="CB31" s="5">
+        <v>-14106819</v>
+      </c>
+      <c r="CC31" s="5">
+        <v>-483925318</v>
+      </c>
     </row>
-    <row r="32" spans="1:79">
+    <row r="32" spans="1:81">
       <c r="A32">
         <v>1501402031</v>
       </c>
       <c r="B32" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C32">
         <v>2016</v>
@@ -9105,13 +9329,19 @@
       <c r="CA32">
         <v>1731453.97</v>
       </c>
+      <c r="CB32" s="5">
+        <v>-14255977</v>
+      </c>
+      <c r="CC32" s="5">
+        <v>-483847762</v>
+      </c>
     </row>
-    <row r="33" spans="1:79">
+    <row r="33" spans="1:81">
       <c r="A33">
         <v>1501402032</v>
       </c>
       <c r="B33" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C33">
         <v>23549</v>
@@ -9344,13 +9574,19 @@
       <c r="CA33">
         <v>2157621.46</v>
       </c>
+      <c r="CB33" s="5">
+        <v>-13765576</v>
+      </c>
+      <c r="CC33" s="5">
+        <v>-484575778</v>
+      </c>
     </row>
-    <row r="34" spans="1:79">
+    <row r="34" spans="1:81">
       <c r="A34">
         <v>1501402033</v>
       </c>
       <c r="B34" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C34">
         <v>22563</v>
@@ -9583,13 +9819,19 @@
       <c r="CA34">
         <v>1880343.02</v>
       </c>
+      <c r="CB34" s="5">
+        <v>-13685206</v>
+      </c>
+      <c r="CC34" s="5">
+        <v>-484330357</v>
+      </c>
     </row>
-    <row r="35" spans="1:79">
+    <row r="35" spans="1:81">
       <c r="A35">
         <v>1501402034</v>
       </c>
       <c r="B35" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C35">
         <v>49760</v>
@@ -9822,13 +10064,19 @@
       <c r="CA35">
         <v>742075622.88</v>
       </c>
+      <c r="CB35" s="3">
+        <v>-13453902</v>
+      </c>
+      <c r="CC35" s="3">
+        <v>-484431671</v>
+      </c>
     </row>
-    <row r="36" spans="1:79">
+    <row r="36" spans="1:81">
       <c r="A36">
         <v>1501402035</v>
       </c>
       <c r="B36" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C36">
         <v>42541</v>
@@ -10061,13 +10309,19 @@
       <c r="CA36">
         <v>42449655.05</v>
       </c>
+      <c r="CB36" s="3">
+        <v>-13623088</v>
+      </c>
+      <c r="CC36" s="3">
+        <v>-484488292</v>
+      </c>
     </row>
-    <row r="37" spans="1:79">
+    <row r="37" spans="1:81">
       <c r="A37">
         <v>1501402036</v>
       </c>
       <c r="B37" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C37">
         <v>22916</v>
@@ -10300,13 +10554,19 @@
       <c r="CA37">
         <v>47786891.73</v>
       </c>
+      <c r="CB37" s="3">
+        <v>-13707004</v>
+      </c>
+      <c r="CC37" s="3">
+        <v>-484787524</v>
+      </c>
     </row>
-    <row r="38" spans="1:79">
+    <row r="38" spans="1:81">
       <c r="A38">
         <v>1501402037</v>
       </c>
       <c r="B38" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C38">
         <v>8697</v>
@@ -10539,13 +10799,19 @@
       <c r="CA38">
         <v>1484074.61</v>
       </c>
+      <c r="CB38" s="5">
+        <v>-13654216</v>
+      </c>
+      <c r="CC38" s="5">
+        <v>-484628333</v>
+      </c>
     </row>
-    <row r="39" spans="1:79">
+    <row r="39" spans="1:81">
       <c r="A39">
         <v>1501402038</v>
       </c>
       <c r="B39" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C39">
         <v>69110</v>
@@ -10778,13 +11044,19 @@
       <c r="CA39">
         <v>14708159.26</v>
       </c>
+      <c r="CB39" s="5">
+        <v>-13411284</v>
+      </c>
+      <c r="CC39" s="3">
+        <v>-484687472</v>
+      </c>
     </row>
-    <row r="40" spans="1:79">
+    <row r="40" spans="1:81">
       <c r="A40">
         <v>1501402039</v>
       </c>
       <c r="B40" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C40">
         <v>5182</v>
@@ -11017,13 +11289,19 @@
       <c r="CA40">
         <v>6034998.76</v>
       </c>
+      <c r="CB40" s="3">
+        <v>-13715418</v>
+      </c>
+      <c r="CC40" s="3">
+        <v>-48425871</v>
+      </c>
     </row>
-    <row r="41" spans="1:79">
+    <row r="41" spans="1:81">
       <c r="A41">
         <v>1501402040</v>
       </c>
       <c r="B41" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C41">
         <v>9795</v>
@@ -11256,13 +11534,19 @@
       <c r="CA41">
         <v>2353870.94</v>
       </c>
+      <c r="CB41" s="3">
+        <v>-13045941</v>
+      </c>
+      <c r="CC41" s="3">
+        <v>-484432742</v>
+      </c>
     </row>
-    <row r="42" spans="1:79">
+    <row r="42" spans="1:81">
       <c r="A42">
         <v>1501402041</v>
       </c>
       <c r="B42" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C42">
         <v>16853</v>
@@ -11495,13 +11779,19 @@
       <c r="CA42">
         <v>4082450.39</v>
       </c>
+      <c r="CB42" s="5">
+        <v>-13049139</v>
+      </c>
+      <c r="CC42" s="5">
+        <v>-484711298</v>
+      </c>
     </row>
-    <row r="43" spans="1:79">
+    <row r="43" spans="1:81">
       <c r="A43">
         <v>1501402042</v>
       </c>
       <c r="B43" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C43">
         <v>23038</v>
@@ -11734,13 +12024,19 @@
       <c r="CA43">
         <v>151503684.14</v>
       </c>
+      <c r="CB43" s="5">
+        <v>-12945724</v>
+      </c>
+      <c r="CC43" s="5">
+        <v>-484702334</v>
+      </c>
     </row>
-    <row r="44" spans="1:79">
+    <row r="44" spans="1:81">
       <c r="A44">
         <v>1501402043</v>
       </c>
       <c r="B44" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C44">
         <v>11439</v>
@@ -11973,13 +12269,19 @@
       <c r="CA44">
         <v>10773211.79</v>
       </c>
+      <c r="CB44" s="3">
+        <v>-12975074</v>
+      </c>
+      <c r="CC44" s="3">
+        <v>-48483894</v>
+      </c>
     </row>
-    <row r="45" spans="1:79">
+    <row r="45" spans="1:81">
       <c r="A45">
         <v>1501402044</v>
       </c>
       <c r="B45" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C45">
         <v>19674</v>
@@ -12212,13 +12514,19 @@
       <c r="CA45">
         <v>1197479.31</v>
       </c>
+      <c r="CB45" s="5">
+        <v>-12893634</v>
+      </c>
+      <c r="CC45" s="5">
+        <v>-484496375</v>
+      </c>
     </row>
-    <row r="46" spans="1:79">
+    <row r="46" spans="1:81">
       <c r="A46">
         <v>1501402045</v>
       </c>
       <c r="B46" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C46">
         <v>16220</v>
@@ -12451,13 +12759,19 @@
       <c r="CA46">
         <v>3563432.02</v>
       </c>
+      <c r="CB46" s="3">
+        <v>-13143416</v>
+      </c>
+      <c r="CC46" s="3">
+        <v>-48477179</v>
+      </c>
     </row>
-    <row r="47" spans="1:79">
+    <row r="47" spans="1:81">
       <c r="A47">
         <v>1501402046</v>
       </c>
       <c r="B47" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C47">
         <v>28220</v>
@@ -12690,13 +13004,19 @@
       <c r="CA47">
         <v>4407407.24</v>
       </c>
+      <c r="CB47" s="3">
+        <v>-13230454</v>
+      </c>
+      <c r="CC47" s="3">
+        <v>-48457996</v>
+      </c>
     </row>
-    <row r="48" spans="1:79">
+    <row r="48" spans="1:81">
       <c r="A48">
         <v>1501402047</v>
       </c>
       <c r="B48" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C48">
         <v>11743</v>
@@ -12929,13 +13249,19 @@
       <c r="CA48">
         <v>5501825.53</v>
       </c>
+      <c r="CB48" s="5">
+        <v>-13072725</v>
+      </c>
+      <c r="CC48" s="3">
+        <v>-484833866</v>
+      </c>
     </row>
-    <row r="49" spans="1:79">
+    <row r="49" spans="1:81">
       <c r="A49">
         <v>1501402048</v>
       </c>
       <c r="B49" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C49">
         <v>36692</v>
@@ -13167,6 +13493,12 @@
       </c>
       <c r="CA49">
         <v>4949802.44</v>
+      </c>
+      <c r="CB49" s="5">
+        <v>-13235659</v>
+      </c>
+      <c r="CC49" s="3">
+        <v>-484385574</v>
       </c>
     </row>
   </sheetData>
